--- a/数据库设计文档.xlsx
+++ b/数据库设计文档.xlsx
@@ -16,41 +16,137 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>device_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usr_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION_LION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+  <si>
+    <t>User表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USR_NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVITY_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANTITUDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3GP_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTION_USR表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELECTRIC_QUANTITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_INFO表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_PHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_NICKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备绑定电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVITY表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +170,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,12 +188,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -97,9 +226,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,59 +536,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:M6"/>
+  <dimension ref="D7:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="13.25" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:13">
-      <c r="D5" t="s">
+    <row r="7" spans="4:13">
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" ht="16.5" customHeight="1">
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="4:13">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="17.25" customHeight="1">
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13">
+      <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="17" spans="4:12">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="4:12">
+      <c r="D18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12">
+      <c r="D19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12">
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="4:12">
+      <c r="D23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12">
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12">
+      <c r="D27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12">
+      <c r="D29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/数据库设计文档.xlsx
+++ b/数据库设计文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>User表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>ACTIVITY表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,11 +240,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D7:M29"/>
+  <dimension ref="D7:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -597,21 +601,21 @@
       <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="12" spans="4:13">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="4:13">
       <c r="D13" s="2" t="s">
@@ -631,15 +635,15 @@
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="17" spans="4:12">
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="4:12">
       <c r="D18" s="2" t="s">
@@ -674,30 +678,30 @@
       <c r="D19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="4:12">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="4:12">
       <c r="D23" s="2" t="s">
@@ -720,20 +724,20 @@
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="4:12">
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="4:12">
       <c r="D28" s="2" t="s">
@@ -753,9 +757,14 @@
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="32" spans="4:12">
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
